--- a/data/trans_dic/P19C09-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C09-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,29%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,34; 5,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,02; 3,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,73; 4,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,66; 6,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,04; 4,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,24; 5,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>3,53; 5,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>1,86; 3,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,36; 4,58</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,64; 3,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,78; 2,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,15; 3,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>1,12; 2,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>1,84; 3,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,26; 2,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,59; 2,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,46; 2,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,89; 2,93</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,6; 3,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>1,71; 5,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,34; 4,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>1,93; 6,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>1,83; 5,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>2,68; 6,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,59; 3,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,14; 4,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,49; 4,81</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,77%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,03; 3,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,26; 2,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,3; 3,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,54; 3,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,24; 3,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,1; 3,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,44; 3,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>1,9; 2,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,33; 3,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C09-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,19</t>
+          <t>2,46; 5,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,3</t>
+          <t>1,05; 3,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,7</t>
+          <t>1,69; 4,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,43</t>
+          <t>3,69; 6,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,11</t>
+          <t>2,02; 4,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,36</t>
+          <t>2,12; 5,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,47</t>
+          <t>3,51; 5,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,41</t>
+          <t>1,83; 3,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,58</t>
+          <t>2,33; 4,52</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,59</t>
+          <t>1,62; 3,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,0</t>
+          <t>0,76; 1,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,82</t>
+          <t>2,12; 3,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,59</t>
+          <t>1,13; 2,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,58</t>
+          <t>1,86; 3,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,73</t>
+          <t>1,33; 2,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,75</t>
+          <t>1,6; 2,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,5</t>
+          <t>1,44; 2,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,93</t>
+          <t>1,9; 2,97</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,21</t>
+          <t>0,64; 3,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,52</t>
+          <t>1,65; 5,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,53</t>
+          <t>1,48; 4,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,03</t>
+          <t>1,91; 5,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,68</t>
+          <t>1,78; 5,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,34</t>
+          <t>2,67; 6,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,87</t>
+          <t>1,61; 3,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,74</t>
+          <t>2,1; 4,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,81</t>
+          <t>2,4; 4,79</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,34</t>
+          <t>2,03; 3,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,36</t>
+          <t>1,27; 2,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 3,6</t>
+          <t>2,32; 3,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,84</t>
+          <t>2,54; 3,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 3,46</t>
+          <t>2,19; 3,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,37</t>
+          <t>2,1; 3,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,38</t>
+          <t>2,43; 3,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 2,71</t>
+          <t>1,9; 2,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 3,27</t>
+          <t>2,31; 3,23</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por otros motivos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25239</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14136</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13812</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>47122</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>32750</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22281</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>72361</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>46885</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>36094</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>16920; 35585</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8013; 25605</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7729; 22544</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>35348; 61492</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22406; 45368</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13572; 32835</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>57877; 89072</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>34424; 64129</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>25564; 49605</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>31952</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20807</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>49081</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24274</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>40196</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>32340</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>56226</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>61002</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>81422</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21307; 45605</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12532; 31787</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>36013; 64859</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15487; 36281</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>28760; 54412</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>22786; 45290</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>42822; 75522</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>45837; 78794</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>64605; 101012</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7098</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13842</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13168</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14637</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13215</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>21778</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21735</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>27057</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>34946</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2876; 14032</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7035; 23902</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7374; 22561</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7775; 23497</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7356; 23539</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13566; 34113</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13840; 33685</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17602; 39415</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>24203; 48221</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>64290</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>48784</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>76062</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>86034</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>86161</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>76400</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>150323</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>134945</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>152462</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>49747; 80395</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>36061; 65157</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>61486; 95891</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>69534; 106829</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>67139; 107951</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>59980; 95819</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>126092; 178096</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>112286; 160284</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>127493; 177927</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>